--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f02f64fd1b16aca/Documents/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0538B1E4-95D2-402D-8D3C-E0187B8BEA9A}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2F88D1-06D8-4856-9489-D3E30976DC96}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Week Beginning</t>
   </si>
@@ -79,6 +79,15 @@
   <si>
     <t xml:space="preserve"> - Set up this diary
  - Confirmed project idea - writing a piece of music</t>
+  </si>
+  <si>
+    <t>Continued setup - added to a Git repository on GitHub so that collaboration between home and school account is easy (Onedrive was being bad at its job)</t>
+  </si>
+  <si>
+    <t>Using my school and home GitHub accounts instead.</t>
+  </si>
+  <si>
+    <t>Onedrive not working for sharing between school and home accounts.</t>
   </si>
 </sst>
 </file>
@@ -126,13 +135,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -149,10 +158,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,9 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,29 +435,29 @@
     <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="6"/>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -464,25 +469,25 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -512,10 +517,20 @@
       <c r="A4" s="2">
         <v>45243</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -947,5 +962,6 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f02f64fd1b16aca/Documents/EPQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2F88D1-06D8-4856-9489-D3E30976DC96}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB4472A4-5C23-44BB-9DD3-54F6ACD34ADF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Week Beginning</t>
   </si>
@@ -81,13 +81,19 @@
  - Confirmed project idea - writing a piece of music</t>
   </si>
   <si>
-    <t>Continued setup - added to a Git repository on GitHub so that collaboration between home and school account is easy (Onedrive was being bad at its job)</t>
-  </si>
-  <si>
     <t>Using my school and home GitHub accounts instead.</t>
   </si>
   <si>
     <t>Onedrive not working for sharing between school and home accounts.</t>
+  </si>
+  <si>
+    <t>Continued setup - added to a Git repository on GitHub so that collaboration between home and school account is easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Set up a GitHub repo that is accessible by both home and school accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPQ Session was cancelled, week was busy. Did some listening. (R) </t>
   </si>
 </sst>
 </file>
@@ -425,9 +431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,15 +527,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -538,6 +548,12 @@
     <row r="5" spans="1:10" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45250</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB4472A4-5C23-44BB-9DD3-54F6ACD34ADF}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66209430-EC16-434B-AD6A-26A799EC8A6F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Week Beginning</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">EPQ Session was cancelled, week was busy. Did some listening. (R) </t>
+  </si>
+  <si>
+    <t>Format &amp; General research</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +152,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,8 +442,8 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,6 +589,9 @@
       <c r="A7" s="2">
         <v>45264</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66209430-EC16-434B-AD6A-26A799EC8A6F}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D12CA3-E3ED-4018-AEC7-C29F5D7ABF9F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Week Beginning</t>
   </si>
@@ -97,6 +97,22 @@
   </si>
   <si>
     <t>Format &amp; General research</t>
+  </si>
+  <si>
+    <t>Did research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did planning and management. </t>
+  </si>
+  <si>
+    <t>Research. Created a timeline/project breakdown. Updated diary. Updated README.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Gantt Chart
+</t>
+  </si>
+  <si>
+    <t>Ambiguous naming on classical music pieces (e.g. "Trumpet Concerto")</t>
   </si>
 </sst>
 </file>
@@ -147,13 +163,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,13 +459,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="5" customWidth="1"/>
     <col min="3" max="3" width="24.36328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="33.54296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
@@ -461,25 +477,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -511,7 +527,7 @@
       <c r="A3" s="2">
         <v>45236</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -533,7 +549,7 @@
       <c r="A4" s="2">
         <v>45243</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -559,7 +575,7 @@
       <c r="A5" s="2">
         <v>45250</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -577,7 +593,15 @@
       <c r="A6" s="2">
         <v>45257</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -589,12 +613,21 @@
       <c r="A7" s="2">
         <v>45264</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D12CA3-E3ED-4018-AEC7-C29F5D7ABF9F}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F546BAFF-5D71-474D-B39D-372A3F425E8C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Week Beginning</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>Ambiguous naming on classical music pieces (e.g. "Trumpet Concerto")</t>
+  </si>
+  <si>
+    <t>Making composer's name more prominent</t>
+  </si>
+  <si>
+    <t>Did planning, reasearch, and organisation</t>
+  </si>
+  <si>
+    <t>Updated diary, tidied research. Am leaving session early</t>
   </si>
 </sst>
 </file>
@@ -458,8 +467,8 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,7 +637,9 @@
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -637,7 +648,15 @@
       <c r="A8" s="2">
         <v>45271</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/EPQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrsfc-my.sharepoint.com/personal/oc154750_hrsfc_ac_uk/Documents/Documents/Subjects/EPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F546BAFF-5D71-474D-B39D-372A3F425E8C}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_AD4DB114E441178AC67DF49DDE90F218683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B2D29C-E3F3-45C3-B4E3-2650E3B95152}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Week Beginning</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Updated diary, tidied research. Am leaving session early</t>
+  </si>
+  <si>
+    <t>Literally Christmas. Did nothing.</t>
+  </si>
+  <si>
+    <t>Evaluation of project idea shortlist. Further research, and evaluation of research.</t>
   </si>
 </sst>
 </file>
@@ -467,8 +473,8 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,6 +674,9 @@
       <c r="A9" s="2">
         <v>45278</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -680,6 +689,12 @@
       <c r="A10" s="2">
         <v>45285</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -692,6 +707,9 @@
       <c r="A11" s="2">
         <v>45292</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -703,6 +721,12 @@
     <row r="12" spans="1:10" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45299</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>

--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -127,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -169,27 +175,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -511,16 +514,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5" customFormat="1" s="1">
@@ -530,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
@@ -542,616 +545,616 @@
       <c r="J1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="71.5">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45236</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="71.5">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45243</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="71.5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45250</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="71.5">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45257</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="71.5">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45264</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="71.5">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45271</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="71.5">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45278</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="71.5">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45285</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="71.5">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45292</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="45">
-      <c r="A12" s="6">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="60">
+      <c r="A12" s="5">
         <v>45299</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="6">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="5">
         <v>45306</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="6">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="5">
         <v>45313</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="6">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="5">
         <v>45320</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="6">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="5">
         <v>45327</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="6">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5">
         <v>45334</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="71.5">
-      <c r="A18" s="6">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="5">
         <v>45341</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="71.5">
-      <c r="A19" s="6">
-        <v>45348</v>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="5">
+        <v>45351</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="71.5">
-      <c r="A20" s="6">
-        <v>45355</v>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="5">
+        <v>45357</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="71.5">
-      <c r="A21" s="6">
-        <v>45362</v>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="5">
+        <v>45364</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="71.5">
-      <c r="A22" s="6">
-        <v>45369</v>
+      <c r="A22" s="5">
+        <v>45371</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="71.5">
-      <c r="A23" s="6">
-        <v>45376</v>
+      <c r="A23" s="5">
+        <v>45378</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="71.5">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>45383</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="71.5">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>45390</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="71.5">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>45397</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="71.5">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>45404</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="71.5">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>45411</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="71.5">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>45418</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="71.5">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>45425</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="71.5">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>45432</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="71.5">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>45439</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="71.5">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>45446</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="71.5">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>45453</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="71.5">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>45460</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="71.5">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>45467</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="71.5">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>45474</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="71.5">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>45481</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="71.5">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>45488</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
